--- a/speech_processing/analysis/results/cepstrum/F0_comparison_lab_male.xlsx
+++ b/speech_processing/analysis/results/cepstrum/F0_comparison_lab_male.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,337 +466,337 @@
         <v>13.77465148925781</v>
       </c>
       <c r="D2" t="n">
-        <v>19.98649518839518</v>
+        <v>16.10113974361096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>116.5663986206055</v>
+        <v>117.630859375</v>
       </c>
       <c r="B3" t="n">
         <v>116.79</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2236013793945375</v>
+        <v>0.8408593749999937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>117.630859375</v>
+        <v>117.5756530761719</v>
       </c>
       <c r="B4" t="n">
         <v>117.65</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01914062500000568</v>
+        <v>0.07434692382813068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>117.5756530761719</v>
+        <v>116.8266830444336</v>
       </c>
       <c r="B5" t="n">
         <v>117.65</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07434692382813068</v>
+        <v>0.8233169555664119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>116.8266830444336</v>
+        <v>117.0158767700195</v>
       </c>
       <c r="B6" t="n">
-        <v>117.65</v>
+        <v>115.94</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8233169555664119</v>
+        <v>1.075876770019534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>117.0158767700195</v>
+        <v>118.3009262084961</v>
       </c>
       <c r="B7" t="n">
         <v>117.65</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6341232299804744</v>
+        <v>0.6509262084960881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>118.3009262084961</v>
+        <v>119.2888031005859</v>
       </c>
       <c r="B8" t="n">
-        <v>117.65</v>
+        <v>119.4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6509262084960881</v>
+        <v>0.1111968994140682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>119.2888031005859</v>
+        <v>120.0970840454102</v>
       </c>
       <c r="B9" t="n">
         <v>119.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1111968994140682</v>
+        <v>0.6970840454101506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>120.0970840454102</v>
+        <v>119.5390014648438</v>
       </c>
       <c r="B10" t="n">
-        <v>119.4</v>
+        <v>120.3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6970840454101506</v>
+        <v>0.7609985351562472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>119.5390014648438</v>
+        <v>117.8120651245117</v>
       </c>
       <c r="B11" t="n">
-        <v>119.4</v>
+        <v>117.65</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1390014648437443</v>
+        <v>0.1620651245117131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>117.8120651245117</v>
+        <v>116.4637832641602</v>
       </c>
       <c r="B12" t="n">
-        <v>117.65</v>
+        <v>116.79</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1620651245117131</v>
+        <v>0.32621673583985</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>116.4637832641602</v>
+        <v>115.3791580200195</v>
       </c>
       <c r="B13" t="n">
-        <v>116.79</v>
+        <v>115.11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.32621673583985</v>
+        <v>0.2691580200195318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>115.3791580200195</v>
+        <v>113.8033447265625</v>
       </c>
       <c r="B14" t="n">
-        <v>115.11</v>
+        <v>114.29</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2691580200195318</v>
+        <v>0.4866552734375063</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>113.8033447265625</v>
+        <v>113.0747375488281</v>
       </c>
       <c r="B15" t="n">
-        <v>114.29</v>
+        <v>113.48</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4866552734375063</v>
+        <v>0.405262451171879</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>113.0747375488281</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>113.48</v>
+        <v>253.97</v>
       </c>
       <c r="C16" t="n">
-        <v>0.405262451171879</v>
+        <v>253.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>114.7404022216797</v>
+        <v>114.9552001953125</v>
       </c>
       <c r="B17" t="n">
         <v>115.11</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3695977783203119</v>
+        <v>0.1547998046874994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>114.9552001953125</v>
+        <v>114.5822982788086</v>
       </c>
       <c r="B18" t="n">
-        <v>114.29</v>
+        <v>116.79</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6652001953124937</v>
+        <v>2.207701721191413</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>114.5822982788086</v>
+        <v>113.5789642333984</v>
       </c>
       <c r="B19" t="n">
-        <v>114.29</v>
+        <v>113.48</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2922982788085875</v>
+        <v>0.09896423339843352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>113.5789642333984</v>
+        <v>112.8562088012695</v>
       </c>
       <c r="B20" t="n">
-        <v>114.29</v>
+        <v>113.48</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7110357666015688</v>
+        <v>0.6237911987304727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112.8562088012695</v>
+        <v>113.127326965332</v>
       </c>
       <c r="B21" t="n">
-        <v>114.29</v>
+        <v>113.48</v>
       </c>
       <c r="C21" t="n">
-        <v>1.433791198730475</v>
+        <v>0.3526730346679727</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>113.127326965332</v>
+        <v>114.2129516601562</v>
       </c>
       <c r="B22" t="n">
         <v>114.29</v>
       </c>
       <c r="C22" t="n">
-        <v>1.162673034667975</v>
+        <v>0.07704833984375625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>114.2129516601562</v>
+        <v>114.3563995361328</v>
       </c>
       <c r="B23" t="n">
         <v>114.29</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07704833984375625</v>
+        <v>0.06639953613280625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>114.3563995361328</v>
+        <v>114.4540557861328</v>
       </c>
       <c r="B24" t="n">
-        <v>114.29</v>
+        <v>115.11</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06639953613280625</v>
+        <v>0.6559442138671869</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>114.4540557861328</v>
+        <v>116.7946014404297</v>
       </c>
       <c r="B25" t="n">
         <v>115.94</v>
       </c>
       <c r="C25" t="n">
-        <v>1.485944213867185</v>
+        <v>0.8546014404296898</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>116.7946014404297</v>
+        <v>117.8669128417969</v>
       </c>
       <c r="B26" t="n">
-        <v>115.94</v>
+        <v>117.65</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8546014404296898</v>
+        <v>0.2169128417968693</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>117.8669128417969</v>
+        <v>118.1022720336914</v>
       </c>
       <c r="B27" t="n">
-        <v>117.65</v>
+        <v>118.52</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2169128417968693</v>
+        <v>0.4177279663085898</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>118.1022720336914</v>
+        <v>117.1706085205078</v>
       </c>
       <c r="B28" t="n">
         <v>117.65</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4522720336914006</v>
+        <v>0.4793914794921932</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>117.1706085205078</v>
+        <v>115.7100830078125</v>
       </c>
       <c r="B29" t="n">
-        <v>117.65</v>
+        <v>115.94</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4793914794921932</v>
+        <v>0.2299169921874977</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>115.7100830078125</v>
+        <v>114.5855102539062</v>
       </c>
       <c r="B30" t="n">
-        <v>115.94</v>
+        <v>114.29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2299169921874977</v>
+        <v>0.2955102539062437</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>114.5855102539062</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
         <v>114.29</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2955102539062437</v>
+        <v>114.29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112.7332611083984</v>
+        <v>124.789680480957</v>
       </c>
       <c r="B32" t="n">
-        <v>113.48</v>
+        <v>124.03</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7467388916015665</v>
+        <v>0.7596804809570301</v>
       </c>
     </row>
     <row r="33">
@@ -804,10 +804,10 @@
         <v>122.5589828491211</v>
       </c>
       <c r="B33" t="n">
-        <v>122.14</v>
+        <v>121.21</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4189828491210932</v>
+        <v>1.3489828491211</v>
       </c>
     </row>
     <row r="34">
@@ -815,10 +815,10 @@
         <v>123.3526458740234</v>
       </c>
       <c r="B34" t="n">
-        <v>122.14</v>
+        <v>123.08</v>
       </c>
       <c r="C34" t="n">
-        <v>1.212645874023437</v>
+        <v>0.2726458740234392</v>
       </c>
     </row>
     <row r="35">
@@ -826,10 +826,10 @@
         <v>123.6247711181641</v>
       </c>
       <c r="B35" t="n">
-        <v>122.14</v>
+        <v>124.03</v>
       </c>
       <c r="C35" t="n">
-        <v>1.484771118164062</v>
+        <v>0.4052288818359386</v>
       </c>
     </row>
     <row r="36">
@@ -837,10 +837,10 @@
         <v>123.3014678955078</v>
       </c>
       <c r="B36" t="n">
-        <v>122.14</v>
+        <v>123.08</v>
       </c>
       <c r="C36" t="n">
-        <v>1.161467895507812</v>
+        <v>0.2214678955078142</v>
       </c>
     </row>
     <row r="37">
@@ -867,57 +867,57 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>120.8258285522461</v>
+        <v>119.9362945556641</v>
       </c>
       <c r="B39" t="n">
         <v>120.3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5258285522460966</v>
+        <v>0.3637054443359347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>119.9362945556641</v>
+        <v>119.4052810668945</v>
       </c>
       <c r="B40" t="n">
         <v>120.3</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3637054443359347</v>
+        <v>0.8947189331054659</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>119.4052810668945</v>
+        <v>118.4627532958984</v>
       </c>
       <c r="B41" t="n">
         <v>118.52</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8852810668945352</v>
+        <v>0.05724670410155852</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>118.4627532958984</v>
+        <v>118.5424423217773</v>
       </c>
       <c r="B42" t="n">
-        <v>118.52</v>
+        <v>120.3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.05724670410155852</v>
+        <v>1.757557678222653</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>115.1471939086914</v>
+        <v>115.0749282836914</v>
       </c>
       <c r="B43" t="n">
-        <v>115.11</v>
+        <v>115.94</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03719390869140682</v>
+        <v>0.8650717163085915</v>
       </c>
     </row>
     <row r="44">
@@ -936,10 +936,10 @@
         <v>114.7453155517578</v>
       </c>
       <c r="B45" t="n">
-        <v>113.48</v>
+        <v>115.11</v>
       </c>
       <c r="C45" t="n">
-        <v>1.265315551757809</v>
+        <v>0.3646844482421869</v>
       </c>
     </row>
     <row r="46">
@@ -955,167 +955,156 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>113.7957153320312</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>444.44</v>
+        <v>228.57</v>
       </c>
       <c r="C47" t="n">
-        <v>330.6442846679687</v>
+        <v>228.57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112.7720413208008</v>
+        <v>112.0472793579102</v>
       </c>
       <c r="B48" t="n">
-        <v>444.44</v>
+        <v>200</v>
       </c>
       <c r="C48" t="n">
-        <v>331.6679586791992</v>
+        <v>87.95272064208984</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112.8221969604492</v>
+        <v>114.4084854125977</v>
       </c>
       <c r="B49" t="n">
-        <v>444.44</v>
+        <v>115.11</v>
       </c>
       <c r="C49" t="n">
-        <v>331.6178030395508</v>
+        <v>0.7015145874023432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>114.4084854125977</v>
+        <v>114.8593978881836</v>
       </c>
       <c r="B50" t="n">
         <v>115.11</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7015145874023432</v>
+        <v>0.2506021118164057</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>114.8593978881836</v>
+        <v>113.8720703125</v>
       </c>
       <c r="B51" t="n">
         <v>115.11</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2506021118164057</v>
+        <v>1.237929687499999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>113.8720703125</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>115.11</v>
+        <v>124.03</v>
       </c>
       <c r="C52" t="n">
-        <v>1.237929687499999</v>
+        <v>124.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111.9611129760742</v>
+        <v>112.0294876098633</v>
       </c>
       <c r="B53" t="n">
-        <v>115.11</v>
+        <v>111.11</v>
       </c>
       <c r="C53" t="n">
-        <v>3.148887023925781</v>
+        <v>0.9194876098632818</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112.0294876098633</v>
+        <v>114.5335006713867</v>
       </c>
       <c r="B54" t="n">
-        <v>111.11</v>
+        <v>112.68</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9194876098632818</v>
+        <v>1.853500671386712</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>114.5335006713867</v>
+        <v>118.2854843139648</v>
       </c>
       <c r="B55" t="n">
-        <v>111.11</v>
+        <v>116.79</v>
       </c>
       <c r="C55" t="n">
-        <v>3.423500671386719</v>
+        <v>1.495484313964837</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>118.2854843139648</v>
+        <v>128.6198425292969</v>
       </c>
       <c r="B56" t="n">
-        <v>111.11</v>
+        <v>130.08</v>
       </c>
       <c r="C56" t="n">
-        <v>7.175484313964844</v>
+        <v>1.460157470703138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>122.7677917480469</v>
+        <v>116.5141220092773</v>
       </c>
       <c r="B57" t="n">
-        <v>112.68</v>
+        <v>115.94</v>
       </c>
       <c r="C57" t="n">
-        <v>10.08779174804687</v>
+        <v>0.574122009277346</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>128.4686737060547</v>
+        <v>115.5278549194336</v>
       </c>
       <c r="B58" t="n">
-        <v>80</v>
+        <v>116.79</v>
       </c>
       <c r="C58" t="n">
-        <v>48.46867370605469</v>
+        <v>1.262145080566413</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>116.7145614624023</v>
+        <v>112.9555969238281</v>
       </c>
       <c r="B59" t="n">
-        <v>80</v>
+        <v>111.11</v>
       </c>
       <c r="C59" t="n">
-        <v>36.71456146240234</v>
+        <v>1.845596923828126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>116.5141220092773</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>80</v>
+        <v>94.12</v>
       </c>
       <c r="C60" t="n">
-        <v>36.51412200927734</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>112.9555969238281</v>
-      </c>
-      <c r="B61" t="n">
-        <v>93.02</v>
-      </c>
-      <c r="C61" t="n">
-        <v>19.93559692382813</v>
+        <v>94.12</v>
       </c>
     </row>
   </sheetData>
